--- a/AD-EYE/TA/Configurations/SimulinkConfigExpBmap1goal3.xlsx
+++ b/AD-EYE/TA/Configurations/SimulinkConfigExpBmap1goal3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeye\AD-EYE_Core\AD-EYE\TA\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E492E2-CE8C-4EA2-B7F7-15BD5D53B247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E991B2-283B-4C91-8E40-6C269606ED16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1368" windowWidth="23040" windowHeight="12204" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9444" yWindow="4884" windowWidth="14736" windowHeight="10200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,10 +84,10 @@
     <t>GoalOrientW</t>
   </si>
   <si>
-    <t>percent_reflecting_sfc</t>
-  </si>
-  <si>
-    <t>R</t>
+    <t>fi_lidar_rain_reflectivity</t>
+  </si>
+  <si>
+    <t>fi_lidar_rain_intensity</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
